--- a/config/已实现用例.xlsx
+++ b/config/已实现用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="192">
   <si>
     <t>test_eyt_01_base_info</t>
   </si>
@@ -274,181 +274,181 @@
   </si>
   <si>
     <t>权证请款-原件请款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>财务办理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>财务分公司经理审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>财务风控经理审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>财务会计审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>财务经理审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>资金主管募资审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>车位贷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基本信息录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>借款人信息录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>物业信息录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>申请件录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取申请件编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>查询待处理任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>流程监控</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分公司主管审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分公司经理审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>区域经理审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高级经理审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合同打印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合规审查</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>循环贷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>过桥通</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>资金主管审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>E押通</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基本信息录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>借款人信息录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>物业信息录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>申请件录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取申请件编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>查询待处理任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>流程监控</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分公司主管审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分公司经理审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>区域经理审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高级经理审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合同打印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合规审查</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>进件场景</t>
   </si>
   <si>
     <t>test_01_one_borrower</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_03_two_borrower</t>
   </si>
   <si>
     <t>test_gqt_04_applydata</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单借款人录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>录入两个借款人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>风控回退/拒绝/取消场景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">test_01_branch_director_fallback      </t>
@@ -515,164 +515,187 @@
   </si>
   <si>
     <t>主管回退到申请录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分公司经理回退到申请件录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>区域经理回退到申请件录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高级经理回退到申请件录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>风控逐级回退</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>回退</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分公司主管取消</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分公司经理取消</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>区域经理取消</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高级经理取消</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分公司主管拒绝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>取消</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分公司主管拒绝，并复议通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分公司主管拒绝，并复议不通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分公司经理拒绝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分公司经理拒绝，并复议通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分公司经理拒绝，并复议不通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>区域拒绝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>区域拒绝，并复议通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>区域拒绝，并复议不通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高级经理拒绝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高级经理拒绝，并复议通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高级经理拒绝，并复议不通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>拒绝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用例标号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用例描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合同签约</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_one_person_sign</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单人签约</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>两人签约</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>三人签约</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_two_person_sign</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_03_three_person_sign</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>特批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_01_region_special_approval</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>区域李伟波特批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_02_manage_special_approval</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级审批经理特批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_03_risk_director_special_approval</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控总监特批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -737,21 +760,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1053,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1779,7 +1806,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1810,7 +1837,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -1821,7 +1848,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="6"/>
+      <c r="A97" s="7"/>
       <c r="B97" s="2" t="s">
         <v>131</v>
       </c>
@@ -1830,7 +1857,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="6"/>
+      <c r="A98" s="7"/>
       <c r="B98" s="2" t="s">
         <v>132</v>
       </c>
@@ -1839,7 +1866,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="6"/>
+      <c r="A99" s="7"/>
       <c r="B99" s="2" t="s">
         <v>133</v>
       </c>
@@ -1848,7 +1875,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="6"/>
+      <c r="A100" s="7"/>
       <c r="B100" s="2" t="s">
         <v>134</v>
       </c>
@@ -1857,7 +1884,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -1868,7 +1895,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="6"/>
+      <c r="A102" s="7"/>
       <c r="B102" s="2" t="s">
         <v>136</v>
       </c>
@@ -1877,7 +1904,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="6"/>
+      <c r="A103" s="7"/>
       <c r="B103" s="2" t="s">
         <v>137</v>
       </c>
@@ -1886,7 +1913,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="6"/>
+      <c r="A104" s="7"/>
       <c r="B104" s="2" t="s">
         <v>138</v>
       </c>
@@ -1895,7 +1922,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -1906,7 +1933,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="6"/>
+      <c r="A106" s="7"/>
       <c r="B106" s="2" t="s">
         <v>140</v>
       </c>
@@ -1915,7 +1942,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="6"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="2" t="s">
         <v>141</v>
       </c>
@@ -1924,7 +1951,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="6"/>
+      <c r="A108" s="7"/>
       <c r="B108" s="2" t="s">
         <v>142</v>
       </c>
@@ -1933,7 +1960,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="6"/>
+      <c r="A109" s="7"/>
       <c r="B109" s="2" t="s">
         <v>143</v>
       </c>
@@ -1942,7 +1969,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="6"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="2" t="s">
         <v>144</v>
       </c>
@@ -1951,7 +1978,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="6"/>
+      <c r="A111" s="7"/>
       <c r="B111" s="2" t="s">
         <v>145</v>
       </c>
@@ -1960,7 +1987,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="6"/>
+      <c r="A112" s="7"/>
       <c r="B112" s="2" t="s">
         <v>146</v>
       </c>
@@ -1969,7 +1996,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="6"/>
+      <c r="A113" s="7"/>
       <c r="B113" s="2" t="s">
         <v>147</v>
       </c>
@@ -1978,7 +2005,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="6"/>
+      <c r="A114" s="7"/>
       <c r="B114" s="2" t="s">
         <v>148</v>
       </c>
@@ -1987,7 +2014,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="6"/>
+      <c r="A115" s="7"/>
       <c r="B115" s="2" t="s">
         <v>149</v>
       </c>
@@ -1996,7 +2023,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="6"/>
+      <c r="A116" s="7"/>
       <c r="B116" s="2" t="s">
         <v>150</v>
       </c>
@@ -2044,6 +2071,22 @@
       </c>
       <c r="C123" s="3" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B124" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B125" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +2095,7 @@
     <mergeCell ref="A101:A104"/>
     <mergeCell ref="A105:A116"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2066,7 +2109,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2079,7 +2122,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>